--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEA76E-AEDB-4867-9C8B-7F2F4B802B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270A81B-7605-4EB3-91E3-27239FAF24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51690" yWindow="1425" windowWidth="21720" windowHeight="19635" activeTab="1" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" activeTab="2" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Mechanisms" sheetId="2" r:id="rId2"/>
+    <sheet name="Drugs" sheetId="3" r:id="rId2"/>
+    <sheet name="Mechanisms" sheetId="2" r:id="rId3"/>
+    <sheet name="Diseases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="205">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -81,9 +83,6 @@
     <t>Ebglyss (lebrikizumab, LLY)</t>
   </si>
   <si>
-    <t>Olumiant (baricitinib, LLY/INCY)</t>
-  </si>
-  <si>
     <t>Humira (adalimumab, ABBV), Enbrel (etanercept, AMGN/WYE), Cimzia, Remicade, Simponi</t>
   </si>
   <si>
@@ -111,9 +110,6 @@
     <t>IL-13Ralpha1 forms a heterodimer with IL-4Ralpha</t>
   </si>
   <si>
-    <t>IL-4R</t>
-  </si>
-  <si>
     <t>contains p19 and p40 subunits</t>
   </si>
   <si>
@@ -121,13 +117,550 @@
   </si>
   <si>
     <t>integrin, alpha4beta7</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>IL-12</t>
+  </si>
+  <si>
+    <t>contains p40 subunit</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>VYN202 (VYNE, BET)</t>
+  </si>
+  <si>
+    <t>Vitiligo</t>
+  </si>
+  <si>
+    <t>Uveitis</t>
+  </si>
+  <si>
+    <t>Ulcerative Colitis</t>
+  </si>
+  <si>
+    <t>Type 1 Diabetes</t>
+  </si>
+  <si>
+    <t>Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Sjogren's Syndrome</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Psoriatic Arthritis</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Polymyositis</t>
+  </si>
+  <si>
+    <t>Pemphigus Vulgaris</t>
+  </si>
+  <si>
+    <t>Myasthenia Gravis</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>ITP</t>
+  </si>
+  <si>
+    <t>Hashimoto's Thyroiditis</t>
+  </si>
+  <si>
+    <t>Guillain-Barre Syndrome</t>
+  </si>
+  <si>
+    <t>Graves' Disease</t>
+  </si>
+  <si>
+    <t>Granulomatosis with Polyangiitis</t>
+  </si>
+  <si>
+    <t>Goodpasture's Syndrome</t>
+  </si>
+  <si>
+    <t>Dermatomyositis</t>
+  </si>
+  <si>
+    <t>Crohn's Disease</t>
+  </si>
+  <si>
+    <t>Bullous Pemphigoid</t>
+  </si>
+  <si>
+    <t>Behchet's Disease</t>
+  </si>
+  <si>
+    <t>Autoimmune Hepatitis</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis</t>
+  </si>
+  <si>
+    <t>Alopecia Areata</t>
+  </si>
+  <si>
+    <t>auranofin</t>
+  </si>
+  <si>
+    <t>colchicine</t>
+  </si>
+  <si>
+    <t>dapsone</t>
+  </si>
+  <si>
+    <t>everolimus</t>
+  </si>
+  <si>
+    <t>sirolimus</t>
+  </si>
+  <si>
+    <t>pimecrolimus</t>
+  </si>
+  <si>
+    <t>6-mercaptopurine</t>
+  </si>
+  <si>
+    <t>cyclophosphamide</t>
+  </si>
+  <si>
+    <t>mycophenolate mofetil</t>
+  </si>
+  <si>
+    <t>azathioprine</t>
+  </si>
+  <si>
+    <t>hydroxychoroquine</t>
+  </si>
+  <si>
+    <t>sulfasalazine</t>
+  </si>
+  <si>
+    <t>leflunomide</t>
+  </si>
+  <si>
+    <t>methotrexate</t>
+  </si>
+  <si>
+    <t>tacrolimus</t>
+  </si>
+  <si>
+    <t>dexamethasone</t>
+  </si>
+  <si>
+    <t>Acthar</t>
+  </si>
+  <si>
+    <t>ponesimod</t>
+  </si>
+  <si>
+    <t>ozanimod</t>
+  </si>
+  <si>
+    <t>siponimod</t>
+  </si>
+  <si>
+    <t>fingolimod</t>
+  </si>
+  <si>
+    <t>glatiramer</t>
+  </si>
+  <si>
+    <t>Copaxone</t>
+  </si>
+  <si>
+    <t>teplizumab</t>
+  </si>
+  <si>
+    <t>alemtuzumab</t>
+  </si>
+  <si>
+    <t>Campath</t>
+  </si>
+  <si>
+    <t>belatacept</t>
+  </si>
+  <si>
+    <t>filgotinib</t>
+  </si>
+  <si>
+    <t>baricitinib</t>
+  </si>
+  <si>
+    <t>Olumiant</t>
+  </si>
+  <si>
+    <t>certolizumab</t>
+  </si>
+  <si>
+    <t>Cimzia</t>
+  </si>
+  <si>
+    <t>brodalumab</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>BAFF</t>
+  </si>
+  <si>
+    <t>belimumab</t>
+  </si>
+  <si>
+    <t>Benlysta</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>secukinumab</t>
+  </si>
+  <si>
+    <t>Cosentyx</t>
+  </si>
+  <si>
+    <t>SNY/REGN</t>
+  </si>
+  <si>
+    <t>IL-6</t>
+  </si>
+  <si>
+    <t>sarilumab</t>
+  </si>
+  <si>
+    <t>Sarclisa</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>tocilizumab</t>
+  </si>
+  <si>
+    <t>Actemra</t>
+  </si>
+  <si>
+    <t>IL-2/CD25</t>
+  </si>
+  <si>
+    <t>basiliximab</t>
+  </si>
+  <si>
+    <t>anakinra</t>
+  </si>
+  <si>
+    <t>ocrelizumab</t>
+  </si>
+  <si>
+    <t>Ocrevus</t>
+  </si>
+  <si>
+    <t>ofatumumab</t>
+  </si>
+  <si>
+    <t>Kisempta</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>vedolizumab</t>
+  </si>
+  <si>
+    <t>Entyvio</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>natalizumab</t>
+  </si>
+  <si>
+    <t>Tysabri</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>apremilast</t>
+  </si>
+  <si>
+    <t>Otezla</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>abatecept</t>
+  </si>
+  <si>
+    <t>Orencia</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>ixekizumab</t>
+  </si>
+  <si>
+    <t>Taltz</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>ravulizumab</t>
+  </si>
+  <si>
+    <t>Ultomiris</t>
+  </si>
+  <si>
+    <t>eculizumab</t>
+  </si>
+  <si>
+    <t>Soliris</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>risankizumab</t>
+  </si>
+  <si>
+    <t>Skyrizi</t>
+  </si>
+  <si>
+    <t>upadacitinib</t>
+  </si>
+  <si>
+    <t>Rinvoq</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>cyclosporine</t>
+  </si>
+  <si>
+    <t>ROG/NVS</t>
+  </si>
+  <si>
+    <t>omalizumab</t>
+  </si>
+  <si>
+    <t>Xolair</t>
+  </si>
+  <si>
+    <t>dupilumab</t>
+  </si>
+  <si>
+    <t>Dupixent</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>abrocitinib</t>
+  </si>
+  <si>
+    <t>Cibinqo</t>
+  </si>
+  <si>
+    <t>tofacitinib</t>
+  </si>
+  <si>
+    <t>Xeljanz</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>ustekinumab</t>
+  </si>
+  <si>
+    <t>Stelara</t>
+  </si>
+  <si>
+    <t>guselkumab</t>
+  </si>
+  <si>
+    <t>Tremfya</t>
+  </si>
+  <si>
+    <t>golimumab</t>
+  </si>
+  <si>
+    <t>Simponi</t>
+  </si>
+  <si>
+    <t>rituximab</t>
+  </si>
+  <si>
+    <t>Rituxan</t>
+  </si>
+  <si>
+    <t>adalimumab</t>
+  </si>
+  <si>
+    <t>Humira</t>
+  </si>
+  <si>
+    <t>AMGN/PFE</t>
+  </si>
+  <si>
+    <t>etanercept</t>
+  </si>
+  <si>
+    <t>Enbrel</t>
+  </si>
+  <si>
+    <t>infliximab</t>
+  </si>
+  <si>
+    <t>Remicade</t>
+  </si>
+  <si>
+    <t>prednisone</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>p19 mab</t>
+  </si>
+  <si>
+    <t>Omvoh</t>
+  </si>
+  <si>
+    <t>mirikizumab</t>
+  </si>
+  <si>
+    <t>CTLA4</t>
+  </si>
+  <si>
+    <t>VLA4</t>
+  </si>
+  <si>
+    <t>IL-17A</t>
+  </si>
+  <si>
+    <t>p40 mab</t>
+  </si>
+  <si>
+    <t>subunit of IL-23 and IL-12. Target of Stelara.</t>
+  </si>
+  <si>
+    <t>C5 mab</t>
+  </si>
+  <si>
+    <t>Diseases</t>
+  </si>
+  <si>
+    <t>FDA, EMA, JP</t>
+  </si>
+  <si>
+    <t>Crohn's</t>
+  </si>
+  <si>
+    <t>FDA filed, CHMP recommended</t>
+  </si>
+  <si>
+    <t>2024 Revenue</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>FDA, 2L</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>FDA, 2L adults &amp; 12yoa+</t>
+  </si>
+  <si>
+    <t>FDA - 2L</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>steroid</t>
+  </si>
+  <si>
+    <t>IL-4Ralpha</t>
+  </si>
+  <si>
+    <t>composed of IL-4Ralpha subunit</t>
+  </si>
+  <si>
+    <t>Dupixent (dupilumab, SNY/REGN)</t>
+  </si>
+  <si>
+    <t>Orencia (abatacept, BMY)</t>
+  </si>
+  <si>
+    <t>Rinvoq (upadacitinib, ABBV), Olumiant (baricitinib, LLY/INCY)</t>
+  </si>
+  <si>
+    <t>subunit of IL-23. Target of Tremfya, Omvoh, Skyrizi</t>
+  </si>
+  <si>
+    <t>Skyrizi (risankizumab, ABBV), Omvoh (LLY), Tremfya (guselkumab, JNJ)</t>
+  </si>
+  <si>
+    <t>Ebglyss</t>
+  </si>
+  <si>
+    <t>lebrikizumab</t>
+  </si>
+  <si>
+    <t>IL-23R</t>
+  </si>
+  <si>
+    <t>can be targeted orally?</t>
+  </si>
+  <si>
+    <t>Nimble Therapeutics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -138,6 +671,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -163,9 +703,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,13 +1045,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED8BC0-EFF1-4D58-BDC5-5BF361424E00}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -517,34 +1062,749 @@
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="Mechanisms!A1" display="Mechanisms" xr:uid="{AC73183C-E0DB-4C50-935D-6B35D704A61A}"/>
+    <hyperlink ref="B5" location="Mechanisms!A1" display="Mechanisms" xr:uid="{AC73183C-E0DB-4C50-935D-6B35D704A61A}"/>
+    <hyperlink ref="B4" location="Drugs!A1" display="Drugs" xr:uid="{310B0375-8B1A-40C7-8D92-5B5605D5E277}"/>
+    <hyperlink ref="B3" location="Diseases!A1" display="Diseases" xr:uid="{08155693-9C9E-49A7-BAB7-D3B5EC5DDE65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83BCA9-0223-43C0-AC40-514E6DBAF386}">
+  <dimension ref="A1:L63"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5643</v>
+      </c>
+      <c r="G16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="3">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA6FC0-D354-48D6-9D74-BA6B1B9F11BE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -563,103 +1823,156 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -668,4 +1981,190 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1ADEB-E072-4F86-92FC-1D016117E925}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3A8FA25B-9EAB-45EE-95BE-189D9D95EC3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270A81B-7605-4EB3-91E3-27239FAF24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A6CE0-E1AD-40C8-84B8-D9E3D8B54A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" activeTab="2" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="-51300" yWindow="30" windowWidth="21780" windowHeight="19725" activeTab="3" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="3" r:id="rId2"/>
     <sheet name="Mechanisms" sheetId="2" r:id="rId3"/>
-    <sheet name="Diseases" sheetId="4" r:id="rId4"/>
+    <sheet name="Psoriasis" sheetId="5" r:id="rId4"/>
+    <sheet name="Diseases" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="225">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -95,12 +96,6 @@
     <t>type 2 inflammatory cycle</t>
   </si>
   <si>
-    <t>atopic dermatitis</t>
-  </si>
-  <si>
-    <t>rheumatoid arthritis</t>
-  </si>
-  <si>
     <t>IL-4</t>
   </si>
   <si>
@@ -650,10 +645,76 @@
     <t>IL-23R</t>
   </si>
   <si>
-    <t>can be targeted orally?</t>
-  </si>
-  <si>
-    <t>Nimble Therapeutics</t>
+    <t>Does not work</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>JNJ-77242113</t>
+  </si>
+  <si>
+    <t>icotrokinra</t>
+  </si>
+  <si>
+    <t>JNJ/PTGX</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>can be targeted</t>
+  </si>
+  <si>
+    <t>icotrokinra (JNJ/PTGX), Nimble Therapeutics</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>PASI90</t>
+  </si>
+  <si>
+    <t>IL-23R antagonist</t>
+  </si>
+  <si>
+    <t>PASI75</t>
+  </si>
+  <si>
+    <t>47-60%</t>
+  </si>
+  <si>
+    <t>65-79%</t>
+  </si>
+  <si>
+    <t>PASI100</t>
+  </si>
+  <si>
+    <t>23-41%</t>
+  </si>
+  <si>
+    <t>JNJ-2113, fka JNJ-77242113/PN-235</t>
+  </si>
+  <si>
+    <t>TNF-alpha mab</t>
+  </si>
+  <si>
+    <t>47-50%</t>
+  </si>
+  <si>
+    <t>70-73%</t>
+  </si>
+  <si>
+    <t>68-74%</t>
+  </si>
+  <si>
+    <t>TNF-alpha soluble receptor</t>
+  </si>
+  <si>
+    <t>57-57%</t>
+  </si>
+  <si>
+    <t>Otezela</t>
   </si>
 </sst>
 </file>
@@ -682,12 +743,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -703,11 +776,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1063,7 +1144,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
@@ -1093,19 +1174,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83BCA9-0223-43C0-AC40-514E6DBAF386}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1113,292 +1194,323 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
         <v>186</v>
       </c>
-      <c r="J2" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="L5" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3">
         <v>9293</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3859</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10490</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3">
         <v>5643</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" t="s">
         <v>187</v>
       </c>
-      <c r="J16" t="s">
-        <v>189</v>
-      </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3">
         <v>151</v>
       </c>
       <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
         <v>182</v>
-      </c>
-      <c r="H17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="3">
         <v>10813</v>
@@ -1406,16 +1518,16 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F19" s="3">
         <v>42</v>
@@ -1423,181 +1535,181 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" s="3">
         <v>3250</v>
@@ -1605,43 +1717,43 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -1649,10 +1761,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1660,157 +1772,177 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{44879049-9B84-4688-AB2C-BF5B90191FD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA6FC0-D354-48D6-9D74-BA6B1B9F11BE}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1823,155 +1955,173 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1984,6 +2134,179 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E09E4-8400-41E4-AFEF-52326921B91B}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{64678C2D-7DF3-4CA5-8873-D22703D5425D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1ADEB-E072-4F86-92FC-1D016117E925}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2007,7 +2330,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2015,150 +2338,150 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A6CE0-E1AD-40C8-84B8-D9E3D8B54A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498EACAE-0D39-4146-8EF0-A19751820234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="30" windowWidth="21780" windowHeight="19725" activeTab="3" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="705" yWindow="960" windowWidth="25725" windowHeight="20775" activeTab="3" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3C38876C-45F7-4F38-B404-4B1D70CF2A72}</author>
+    <author>tc={0D5DFF0C-83AE-47F5-89A5-AB9BE56D256B}</author>
+    <author>tc={035AE1F0-D050-463A-A867-D28317F541BF}</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{3C38876C-45F7-4F38-B404-4B1D70CF2A72}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    15% at week 4</t>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{0D5DFF0C-83AE-47F5-89A5-AB9BE56D256B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    47-60% in phase 2</t>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{035AE1F0-D050-463A-A867-D28317F541BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    77% by week 4</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="239">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -681,9 +717,6 @@
     <t>PASI75</t>
   </si>
   <si>
-    <t>47-60%</t>
-  </si>
-  <si>
     <t>65-79%</t>
   </si>
   <si>
@@ -702,26 +735,71 @@
     <t>47-50%</t>
   </si>
   <si>
-    <t>70-73%</t>
-  </si>
-  <si>
     <t>68-74%</t>
   </si>
   <si>
     <t>TNF-alpha soluble receptor</t>
   </si>
   <si>
-    <t>57-57%</t>
-  </si>
-  <si>
-    <t>Otezela</t>
+    <t>Sotyktu</t>
+  </si>
+  <si>
+    <t>deucravacitinib</t>
+  </si>
+  <si>
+    <t>Tyk2</t>
+  </si>
+  <si>
+    <t>PDE4</t>
+  </si>
+  <si>
+    <t>IL-17A mab</t>
+  </si>
+  <si>
+    <t>77-82%</t>
+  </si>
+  <si>
+    <t>44-57%</t>
+  </si>
+  <si>
+    <t>tapinarof</t>
+  </si>
+  <si>
+    <t>36-48%</t>
+  </si>
+  <si>
+    <t>19-21%</t>
+  </si>
+  <si>
+    <t>bimekizumab</t>
+  </si>
+  <si>
+    <t>Bimzelx</t>
+  </si>
+  <si>
+    <t>70-84%</t>
+  </si>
+  <si>
+    <t>JAK inhibitor</t>
+  </si>
+  <si>
+    <t>81-82%</t>
+  </si>
+  <si>
+    <t>69-70%</t>
+  </si>
+  <si>
+    <t>82-91%</t>
+  </si>
+  <si>
+    <t>50%-56%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -740,6 +818,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -776,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -784,10 +868,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,6 +900,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{3EEC7C04-AACA-4B1F-B762-9D4DECA6472E}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,6 +1223,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H4" dT="2025-01-20T17:46:05.27" personId="{3EEC7C04-AACA-4B1F-B762-9D4DECA6472E}" id="{3C38876C-45F7-4F38-B404-4B1D70CF2A72}">
+    <text>15% at week 4</text>
+  </threadedComment>
+  <threadedComment ref="G11" dT="2025-01-20T17:15:43.34" personId="{3EEC7C04-AACA-4B1F-B762-9D4DECA6472E}" id="{0D5DFF0C-83AE-47F5-89A5-AB9BE56D256B}">
+    <text>47-60% in phase 2</text>
+  </threadedComment>
+  <threadedComment ref="H13" dT="2025-01-20T17:45:48.06" personId="{3EEC7C04-AACA-4B1F-B762-9D4DECA6472E}" id="{035AE1F0-D050-463A-A867-D28317F541BF}">
+    <text>77% by week 4</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED8BC0-EFF1-4D58-BDC5-5BF361424E00}">
   <dimension ref="B2:B6"/>
@@ -2134,31 +2247,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E09E4-8400-41E4-AFEF-52326921B91B}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E09E4-8400-41E4-AFEF-52326921B91B}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="7" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -2172,16 +2285,19 @@
         <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -2194,11 +2310,11 @@
       <c r="E3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>153</v>
       </c>
@@ -2211,12 +2327,17 @@
       <c r="E4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="H4" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>164</v>
       </c>
@@ -2224,17 +2345,17 @@
         <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
         <v>162</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>161</v>
       </c>
@@ -2242,60 +2363,186 @@
         <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
         <v>134</v>
       </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>217</v>
-      </c>
+      <c r="H10" s="7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.496</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" t="s">
-        <v>216</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" t="s">
-        <v>214</v>
+        <v>230</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2303,6 +2550,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{64678C2D-7DF3-4CA5-8873-D22703D5425D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498EACAE-0D39-4146-8EF0-A19751820234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5EB2C-2842-4084-ADF6-45E61E2CF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="960" windowWidth="25725" windowHeight="20775" activeTab="3" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="15270" yWindow="2900" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="3" r:id="rId2"/>
     <sheet name="Mechanisms" sheetId="2" r:id="rId3"/>
-    <sheet name="Psoriasis" sheetId="5" r:id="rId4"/>
-    <sheet name="Diseases" sheetId="4" r:id="rId5"/>
+    <sheet name="Diseases" sheetId="4" r:id="rId4"/>
+    <sheet name="Psoriasis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="262">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Type 1 Diabetes</t>
   </si>
   <si>
-    <t>Systemic Sclerosis</t>
-  </si>
-  <si>
     <t>SLE</t>
   </si>
   <si>
@@ -793,13 +790,85 @@
   </si>
   <si>
     <t>50%-56%</t>
+  </si>
+  <si>
+    <t>NMOSD</t>
+  </si>
+  <si>
+    <t>Uplizna</t>
+  </si>
+  <si>
+    <t>CD19</t>
+  </si>
+  <si>
+    <t>inebilizumab</t>
+  </si>
+  <si>
+    <t>IgG4-related disease</t>
+  </si>
+  <si>
+    <t>dazodalibep</t>
+  </si>
+  <si>
+    <t>CD40L inhibitor</t>
+  </si>
+  <si>
+    <t>Discoid Lupus</t>
+  </si>
+  <si>
+    <t>daxdilimab</t>
+  </si>
+  <si>
+    <t>ILT7 mab</t>
+  </si>
+  <si>
+    <t>Indications</t>
+  </si>
+  <si>
+    <t>Discoid Lupus Erythematosus, Dermatomyositis, Antisynthetase Inflammatory Myositis</t>
+  </si>
+  <si>
+    <t>Sjogren's</t>
+  </si>
+  <si>
+    <t>Antisynthetase Inflammatory Myositis</t>
+  </si>
+  <si>
+    <t>Systemic Sclerosis (including diffuse cutaneous)</t>
+  </si>
+  <si>
+    <t>fipaxalparant (failed)</t>
+  </si>
+  <si>
+    <t>fipaxalprant</t>
+  </si>
+  <si>
+    <t>LPAR1 antagonist</t>
+  </si>
+  <si>
+    <t>failed for systemic sclerosis</t>
+  </si>
+  <si>
+    <t>dupilumab, rocatinlimab</t>
+  </si>
+  <si>
+    <t>rocatinlimab</t>
+  </si>
+  <si>
+    <t>AMG 451/KHK4083</t>
+  </si>
+  <si>
+    <t>AMGN/4151</t>
+  </si>
+  <si>
+    <t>OX40 mab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -818,12 +887,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -860,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,9 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1242,35 +1302,35 @@
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1287,750 +1347,859 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83BCA9-0223-43C0-AC40-514E6DBAF386}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" t="s">
         <v>183</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" t="s">
-        <v>186</v>
-      </c>
       <c r="K2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
         <v>189</v>
       </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3">
         <v>1590</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="L5" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="M5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3">
         <v>9293</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="M6" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="3">
         <v>2205</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="3">
         <v>3859</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="3">
         <v>10490</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
         <v>146</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="3">
         <v>5643</v>
       </c>
-      <c r="G16" t="s">
-        <v>188</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s">
         <v>187</v>
       </c>
-      <c r="K16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
         <v>171</v>
       </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>180</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="3">
         <v>10813</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
         <v>173</v>
       </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
       </c>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3250</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>95</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
         <v>94</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
         <v>203</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
         <v>204</v>
       </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" t="s">
-        <v>205</v>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" t="s">
+        <v>260</v>
+      </c>
+      <c r="G71" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2049,74 +2218,74 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -2124,7 +2293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2132,13 +2301,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2146,7 +2315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2165,74 +2334,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
         <v>207</v>
       </c>
-      <c r="E12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>196</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2247,188 +2416,422 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1ADEB-E072-4F86-92FC-1D016117E925}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3A8FA25B-9EAB-45EE-95BE-189D9D95EC3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E09E4-8400-41E4-AFEF-52326921B91B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="6"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="7" max="8" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7">
         <v>0.21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>220</v>
-      </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
         <v>221</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>222</v>
       </c>
-      <c r="D9" t="s">
-        <v>223</v>
-      </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
@@ -2436,91 +2839,91 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s">
         <v>204</v>
       </c>
-      <c r="D11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7">
         <v>0.496</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F13" s="8">
         <v>0.59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" s="8">
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -2530,19 +2933,19 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
-        <v>235</v>
+      <c r="G17" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2552,190 +2955,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1ADEB-E072-4F86-92FC-1D016117E925}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3A8FA25B-9EAB-45EE-95BE-189D9D95EC3A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5EB2C-2842-4084-ADF6-45E61E2CF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221253F4-6C0C-487F-BB53-FF6D2C4E4E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="2900" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="6810" yWindow="1005" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="293">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -615,9 +615,6 @@
     <t>Diseases</t>
   </si>
   <si>
-    <t>FDA, EMA, JP</t>
-  </si>
-  <si>
     <t>Crohn's</t>
   </si>
   <si>
@@ -862,6 +859,102 @@
   </si>
   <si>
     <t>OX40 mab</t>
+  </si>
+  <si>
+    <t>TL1A mab</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RO7790121, PF-06480605, RVT-3101</t>
+  </si>
+  <si>
+    <t>tulisokibart</t>
+  </si>
+  <si>
+    <t>MRK (Prometheus)</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>26% remission vs. 1% placebo</t>
+  </si>
+  <si>
+    <t>Velsipity</t>
+  </si>
+  <si>
+    <t>etrasimod</t>
+  </si>
+  <si>
+    <t>S1P</t>
+  </si>
+  <si>
+    <t>27% vs. 7% at week 12</t>
+  </si>
+  <si>
+    <t>25% vs. 10% for placebo</t>
+  </si>
+  <si>
+    <t>ABX464</t>
+  </si>
+  <si>
+    <t>FDA, EMA, JP. 12%-23% vs. 5%.</t>
+  </si>
+  <si>
+    <t>ritlecitinib</t>
+  </si>
+  <si>
+    <t>JAK3/TEC</t>
+  </si>
+  <si>
+    <t>brepocitinib</t>
+  </si>
+  <si>
+    <t>TYK2/JAK1</t>
+  </si>
+  <si>
+    <t>14-36% remission</t>
+  </si>
+  <si>
+    <t>15-26% remission</t>
+  </si>
+  <si>
+    <t>Litfulo (PF-06651600)</t>
+  </si>
+  <si>
+    <t>(PF-06700841)</t>
+  </si>
+  <si>
+    <t>Priovant (ROIV/PFE)</t>
+  </si>
+  <si>
+    <t>FDA - 2L. 9-20% remission vs. 0% for placebo.</t>
+  </si>
+  <si>
+    <t>CD, UC</t>
+  </si>
+  <si>
+    <t>17% vs. 7% for Humira</t>
+  </si>
+  <si>
+    <t>7% remission</t>
+  </si>
+  <si>
+    <t>etrolizumab</t>
+  </si>
+  <si>
+    <t>anti-B7 integrin mab</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>19% remission vs. 7% for placebo</t>
+  </si>
+  <si>
+    <t>UC, MASH, AD, CD</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,6 +1035,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1305,32 +1399,32 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1347,34 +1441,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83BCA9-0223-43C0-AC40-514E6DBAF386}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -1388,42 +1482,42 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -1441,7 +1535,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>163</v>
       </c>
@@ -1457,10 +1551,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="M5" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>160</v>
       </c>
@@ -1477,11 +1571,14 @@
         <v>9293</v>
       </c>
       <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>287</v>
+      </c>
       <c r="M6" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>158</v>
       </c>
@@ -1497,7 +1594,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -1515,7 +1612,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>154</v>
       </c>
@@ -1532,14 +1629,17 @@
         <v>3859</v>
       </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="J9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>152</v>
       </c>
@@ -1557,13 +1657,13 @@
       </c>
       <c r="G10" s="3"/>
       <c r="J10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>149</v>
       </c>
@@ -1579,7 +1679,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>147</v>
       </c>
@@ -1595,7 +1695,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>144</v>
       </c>
@@ -1603,7 +1703,7 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
         <v>99</v>
@@ -1611,7 +1711,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -1624,7 +1724,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>139</v>
       </c>
@@ -1634,7 +1734,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -1652,22 +1752,22 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s">
         <v>186</v>
       </c>
-      <c r="L16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>170</v>
       </c>
@@ -1685,13 +1785,13 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>135</v>
       </c>
@@ -1709,12 +1809,12 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>198</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1727,7 +1827,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -1743,7 +1843,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -1759,7 +1859,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>124</v>
       </c>
@@ -1775,7 +1875,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>121</v>
       </c>
@@ -1788,7 +1888,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>118</v>
       </c>
@@ -1804,7 +1904,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>115</v>
       </c>
@@ -1818,9 +1918,14 @@
         <v>113</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>112</v>
       </c>
@@ -1836,7 +1941,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>110</v>
       </c>
@@ -1852,15 +1957,15 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" t="s">
         <v>239</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" t="s">
-        <v>240</v>
       </c>
       <c r="E28" t="s">
         <v>119</v>
@@ -1868,14 +1973,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>107</v>
       </c>
@@ -1888,7 +1993,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -1904,7 +2009,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>102</v>
       </c>
@@ -1920,7 +2025,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>127</v>
       </c>
@@ -1938,7 +2043,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
@@ -1952,7 +2057,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>95</v>
       </c>
@@ -1966,203 +2071,209 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" t="s">
         <v>203</v>
       </c>
-      <c r="D67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" t="s">
         <v>243</v>
-      </c>
-      <c r="D68" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" t="s">
-        <v>247</v>
       </c>
       <c r="E69" t="s">
         <v>119</v>
@@ -2171,35 +2282,145 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
         <v>119</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" t="s">
         <v>259</v>
       </c>
-      <c r="C71" t="s">
-        <v>258</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="K72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
         <v>261</v>
       </c>
-      <c r="E71" t="s">
-        <v>260</v>
-      </c>
-      <c r="G71" t="s">
-        <v>55</v>
+      <c r="E73" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" t="s">
+        <v>292</v>
+      </c>
+      <c r="H73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G74" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="G76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" t="s">
+        <v>290</v>
+      </c>
+      <c r="G78" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2221,26 +2442,26 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
         <v>178</v>
@@ -2249,13 +2470,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2263,29 +2484,29 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -2293,7 +2514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +2536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2334,23 +2555,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
         <v>206</v>
       </c>
-      <c r="E12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -2358,29 +2579,29 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -2391,12 +2612,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -2426,19 +2647,19 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -2446,194 +2667,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
         <v>245</v>
       </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="s">
         <v>238</v>
       </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s">
         <v>252</v>
       </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -2660,21 +2881,21 @@
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -2688,19 +2909,19 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -2714,10 +2935,10 @@
         <v>150</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>152</v>
       </c>
@@ -2734,13 +2955,13 @@
         <v>0.21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>163</v>
       </c>
@@ -2748,17 +2969,17 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
         <v>161</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>160</v>
       </c>
@@ -2766,24 +2987,24 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
         <v>133</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>156</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -2791,25 +3012,25 @@
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
         <v>220</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>221</v>
-      </c>
-      <c r="D9" t="s">
-        <v>222</v>
       </c>
       <c r="E9" t="s">
         <v>122</v>
@@ -2820,7 +3041,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>121</v>
       </c>
@@ -2828,7 +3049,7 @@
         <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
         <v>119</v>
@@ -2839,65 +3060,65 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
         <v>203</v>
       </c>
-      <c r="D11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" t="s">
-        <v>204</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7">
         <v>0.496</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F13" s="8">
         <v>0.59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H13" s="8">
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>135</v>
       </c>
@@ -2915,7 +3136,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>149</v>
       </c>
@@ -2923,7 +3144,7 @@
         <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -2933,7 +3154,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>171</v>
       </c>
@@ -2945,7 +3166,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Immunology.xlsx
+++ b/Immunology.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221253F4-6C0C-487F-BB53-FF6D2C4E4E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C000A9E-FDA2-488A-BF03-649EA8AE2171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="1005" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
+    <workbookView xWindow="36620" yWindow="2680" windowWidth="31230" windowHeight="17430" activeTab="3" xr2:uid="{CD20E7C6-9EC4-4D7B-AAE8-309AA52AD58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="3" r:id="rId2"/>
     <sheet name="Mechanisms" sheetId="2" r:id="rId3"/>
-    <sheet name="Diseases" sheetId="4" r:id="rId4"/>
-    <sheet name="Psoriasis" sheetId="5" r:id="rId5"/>
+    <sheet name="Glossary" sheetId="6" r:id="rId4"/>
+    <sheet name="Diseases" sheetId="4" r:id="rId5"/>
+    <sheet name="Psoriasis" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="384">
   <si>
     <t>Mechanisms</t>
   </si>
@@ -955,13 +956,307 @@
   </si>
   <si>
     <t>UC, MASH, AD, CD</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>T cell receptor</t>
+  </si>
+  <si>
+    <t>pMHC</t>
+  </si>
+  <si>
+    <t>peptide-MHC</t>
+  </si>
+  <si>
+    <t>MHC</t>
+  </si>
+  <si>
+    <t>major histocaompatibility complex</t>
+  </si>
+  <si>
+    <t>antibody</t>
+  </si>
+  <si>
+    <t>antigen</t>
+  </si>
+  <si>
+    <t>thymic selection</t>
+  </si>
+  <si>
+    <t>TCRs, bind to pMHC with low uM affinity, which facilitates cross-reactive TCR 'scanning'.</t>
+  </si>
+  <si>
+    <t>typically recognizes antigen with nM or better affinity</t>
+  </si>
+  <si>
+    <t>target of antibody</t>
+  </si>
+  <si>
+    <t>avidity</t>
+  </si>
+  <si>
+    <t>adaptive immune system</t>
+  </si>
+  <si>
+    <t>Uses B/T cells to learn pathogenic patterns. Contrast with innate immune system.</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>adaptive immune system core component, produces antibodies</t>
+  </si>
+  <si>
+    <t>C1q</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First subcomponent of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C1 complement complex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that binds antibody–antigen clusters to initiate the classical complement cascade.</t>
+    </r>
+  </si>
+  <si>
+    <t>cachectin</t>
+  </si>
+  <si>
+    <t>protein known prior to discovery of TNF was found to be TNF</t>
+  </si>
+  <si>
+    <t>CCL2</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>Helper T cells which coordinate immune response by activating other immune cells via cytokines. Essential for effective antibody production by B cells and activation of cytotoxic T cells and macrophages.</t>
+  </si>
+  <si>
+    <t>complement cascade</t>
+  </si>
+  <si>
+    <t>Component of innate immune system. Microbes activate.</t>
+  </si>
+  <si>
+    <t>complement receptors</t>
+  </si>
+  <si>
+    <t>sentinel</t>
+  </si>
+  <si>
+    <t>corticosteroid</t>
+  </si>
+  <si>
+    <t>Synthetic or natural adrenal‐cortex–derived steroid hormone used to suppress inflammation and immune responses</t>
+  </si>
+  <si>
+    <t>cortisol</t>
+  </si>
+  <si>
+    <t>endogenous corticosteroid</t>
+  </si>
+  <si>
+    <t>CXCL10</t>
+  </si>
+  <si>
+    <t>CXCL2</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>Small secreted protein that acts as an intercellular messenger to regulate immune and inflammatory processes</t>
+  </si>
+  <si>
+    <t>dendritic cells</t>
+  </si>
+  <si>
+    <t>Antigen-presenting cells, which act as a messenger between innate and adaptive immunity.</t>
+  </si>
+  <si>
+    <t>fibroblasts</t>
+  </si>
+  <si>
+    <t>Major connective tissue cell type which can secret cytokines.</t>
+  </si>
+  <si>
+    <t>gamma delta T cells</t>
+  </si>
+  <si>
+    <t>Innate-like, they possess TCR (T-cell receptor) with different chains (alpha/beta are typical). Bridge innate/adaptive immunity by responding to stress signals without classical antigen presentation.</t>
+  </si>
+  <si>
+    <t>gasdermin D</t>
+  </si>
+  <si>
+    <t>glucocorticoid receptor</t>
+  </si>
+  <si>
+    <t>expressed in every cell, member nuclear hormone family. A cytosolic receptor, GR is bound to chaperone complex which includes HSPs.</t>
+  </si>
+  <si>
+    <t>Cortisone results in dissociation of complex and translocates to the nucleus. GR binds as a homodimer to GREs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The resulting GR-homodimer-GRE-containing DNA complex recruits coactivator or corepressor proteins which modify chromatin structure.</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>glucocorticoid receptor response elements</t>
+  </si>
+  <si>
+    <t>HPA axis</t>
+  </si>
+  <si>
+    <t>hypothalamic–pituitary–adrenal axis</t>
+  </si>
+  <si>
+    <t>IFN-gamma</t>
+  </si>
+  <si>
+    <t>IkappaB</t>
+  </si>
+  <si>
+    <t>IL-1</t>
+  </si>
+  <si>
+    <t>Interleukin-1 family of proinflammatory cytokines (including IL-1α and IL-1β) that drive fever and immune activation.</t>
+  </si>
+  <si>
+    <t>IL-1alpha</t>
+  </si>
+  <si>
+    <t>Cell‐associated form of interleukin-1 released upon cell damage to trigger local inflammatory signaling.</t>
+  </si>
+  <si>
+    <t>IL-1beta</t>
+  </si>
+  <si>
+    <t>Secreted form of interleukin-1 produced via inflammasome activation that promotes systemic inflammation and fever</t>
+  </si>
+  <si>
+    <t>IL-2</t>
+  </si>
+  <si>
+    <t>anti-inflammatory cytokine</t>
+  </si>
+  <si>
+    <t>IL-33</t>
+  </si>
+  <si>
+    <t>innate immune system</t>
+  </si>
+  <si>
+    <t>Non-specific response to pathogens via several mechanisms including NK cells, dendritic cells, mast cells, macrophages, neutrophils, cytokines, complement, TLR. Contrast with adaptive immune system.</t>
+  </si>
+  <si>
+    <t>lipocalin-2</t>
+  </si>
+  <si>
+    <t>downstream TNF inflammatory molecule</t>
+  </si>
+  <si>
+    <t>lymphocytes</t>
+  </si>
+  <si>
+    <t>Adaptive immune system white blood cell. B cells and T cells are the main lymphocytes.</t>
+  </si>
+  <si>
+    <t>lymphotoxin</t>
+  </si>
+  <si>
+    <t>TNF superfamily member</t>
+  </si>
+  <si>
+    <t>macrophages</t>
+  </si>
+  <si>
+    <t>Large phagocytic cells of the innate immune system that engulf pathogens, dead cells, etc. They secrete inflammatory signals and present antigens to T cells, which link adaptive/innate.</t>
+  </si>
+  <si>
+    <t>monocyte</t>
+  </si>
+  <si>
+    <t>innate immune system cells which engulf dead cells. They can differentiate into macrophages or dendritic cells. CD14 CD16 expression. Monocytes can produce TNF-alpha.</t>
+  </si>
+  <si>
+    <t>myeloid cells</t>
+  </si>
+  <si>
+    <t>NF-kabbaB</t>
+  </si>
+  <si>
+    <t>interacts with GR-steroid complex</t>
+  </si>
+  <si>
+    <t>NLRP3</t>
+  </si>
+  <si>
+    <t>Nod‐like receptor protein 3, an intracellular sensor that assembles the inflammasome to activate caspase-1 and produce IL-1β</t>
+  </si>
+  <si>
+    <t>Lipid‐based molecule with a four‐ring core structure, including hormones and drugs that regulate metabolism, inflammation, and other functions</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>Lymphocytes which respond to antigens presented by other cells. Helper T cells (CD4+), cytotoxic T cells (CD8+), for example.</t>
+  </si>
+  <si>
+    <t>Th1</t>
+  </si>
+  <si>
+    <t>Subset of CD4⁺ T helper cells that secrete interferon-γ and drive cell-mediated immunity against intracellular pathogens</t>
+  </si>
+  <si>
+    <t>Th2</t>
+  </si>
+  <si>
+    <t>Subset of CD4⁺ T helper cells that secrete IL-4, IL-5, and IL-13 to promote antibody production and allergic inflammation</t>
+  </si>
+  <si>
+    <t>Th17</t>
+  </si>
+  <si>
+    <t>Th22</t>
+  </si>
+  <si>
+    <t>TLR</t>
+  </si>
+  <si>
+    <t>Component of innate immune system. Microbes activate this sentinel.</t>
+  </si>
+  <si>
+    <t>Tumor necrosis factor-alpha, a potent proinflammatory cytokine produced by macrophages and other cells that mediates systemic inflammation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -977,6 +1272,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1016,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,6 +1337,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1393,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED8BC0-EFF1-4D58-BDC5-5BF361424E00}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1420,18 +1723,23 @@
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" location="Mechanisms!A1" display="Mechanisms" xr:uid="{AC73183C-E0DB-4C50-935D-6B35D704A61A}"/>
+    <hyperlink ref="B6" location="Mechanisms!A1" display="Mechanisms" xr:uid="{AC73183C-E0DB-4C50-935D-6B35D704A61A}"/>
     <hyperlink ref="B4" location="Drugs!A1" display="Drugs" xr:uid="{310B0375-8B1A-40C7-8D92-5B5605D5E277}"/>
     <hyperlink ref="B3" location="Diseases!A1" display="Diseases" xr:uid="{08155693-9C9E-49A7-BAB7-D3B5EC5DDE65}"/>
   </hyperlinks>
@@ -1443,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83BCA9-0223-43C0-AC40-514E6DBAF386}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2637,6 +2945,439 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE942DD8-B10B-4C41-9039-F82886100DE1}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CB6BDC15-E747-47B2-AA37-5A66170F2D08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1ADEB-E072-4F86-92FC-1D016117E925}">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -2870,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E09E4-8400-41E4-AFEF-52326921B91B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -2878,7 +3619,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
